--- a/teaching/traditional_assets/database/data/canada/canada_healthcare_products.xlsx
+++ b/teaching/traditional_assets/database/data/canada/canada_healthcare_products.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ26"/>
+  <dimension ref="A1:AQ28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0274</v>
+        <v>-0.129</v>
       </c>
       <c r="G2">
-        <v>0.02326995581140793</v>
+        <v>-0.7653748365776905</v>
       </c>
       <c r="H2">
-        <v>-0.6655856001945919</v>
+        <v>-1.214922509903885</v>
       </c>
       <c r="I2">
-        <v>-0.9905279676989205</v>
+        <v>-0.9881467900152658</v>
       </c>
       <c r="J2">
-        <v>-0.9905279676989205</v>
+        <v>-0.9881467900152658</v>
       </c>
       <c r="K2">
-        <v>-160.577</v>
+        <v>-253.258</v>
       </c>
       <c r="L2">
-        <v>-0.9299700583196752</v>
+        <v>-1.663839488085775</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>88.871</v>
+        <v>171.211</v>
       </c>
       <c r="V2">
-        <v>0.1565818429124917</v>
+        <v>0.1154708134571508</v>
       </c>
       <c r="W2">
-        <v>-0.3735154355907548</v>
+        <v>0.06429384838673663</v>
       </c>
       <c r="X2">
-        <v>0.08314628610232375</v>
+        <v>0.05556902301550135</v>
       </c>
       <c r="Y2">
-        <v>-0.4566617216930786</v>
+        <v>0.008724825371235284</v>
       </c>
       <c r="Z2">
-        <v>7.931012779474385</v>
+        <v>1.289318562715173</v>
       </c>
       <c r="AA2">
-        <v>-0.5204824939165398</v>
+        <v>-0.09153315349024554</v>
       </c>
       <c r="AB2">
-        <v>0.07809268961885851</v>
+        <v>0.05315610157553718</v>
       </c>
       <c r="AC2">
-        <v>-0.5969837389973206</v>
+        <v>-0.1445878257557743</v>
       </c>
       <c r="AD2">
-        <v>157.221</v>
+        <v>136.295</v>
       </c>
       <c r="AE2">
-        <v>12.38236827302445</v>
+        <v>7.493936742968285</v>
       </c>
       <c r="AF2">
-        <v>169.6033682730244</v>
+        <v>143.7889367429683</v>
       </c>
       <c r="AG2">
-        <v>80.73236827302445</v>
+        <v>-27.42206325703171</v>
       </c>
       <c r="AH2">
-        <v>0.2300728778946974</v>
+        <v>0.08840335585708184</v>
       </c>
       <c r="AI2">
-        <v>0.7062705690147203</v>
+        <v>0.4595585145126031</v>
       </c>
       <c r="AJ2">
-        <v>0.1245290727799682</v>
+        <v>-0.01884290750490319</v>
       </c>
       <c r="AK2">
-        <v>0.533702909568711</v>
+        <v>-0.1935575723203213</v>
       </c>
       <c r="AL2">
-        <v>17.228</v>
+        <v>18.381</v>
       </c>
       <c r="AM2">
-        <v>16.252</v>
+        <v>16.522</v>
       </c>
       <c r="AN2">
-        <v>-0.9695543852292208</v>
+        <v>-0.9700642700051956</v>
       </c>
       <c r="AO2">
-        <v>-9.986359414905969</v>
+        <v>-8.231543441597301</v>
       </c>
       <c r="AP2">
-        <v>-0.497862382818143</v>
+        <v>0.1951734383173907</v>
       </c>
       <c r="AQ2">
-        <v>-10.58608171301994</v>
+        <v>-9.157729088488077</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +710,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Neovasc Inc. (TSX:NVCN)</t>
+          <t>Imagin Medical Inc. (CNSX:IME)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -718,26 +718,8 @@
           <t>Healthcare Products</t>
         </is>
       </c>
-      <c r="D3">
-        <v>-0.297</v>
-      </c>
-      <c r="G3">
-        <v>-6.341463414634147</v>
-      </c>
-      <c r="H3">
-        <v>-15.07317073170732</v>
-      </c>
-      <c r="I3">
-        <v>-14.75565332317483</v>
-      </c>
-      <c r="J3">
-        <v>-14.75565332317483</v>
-      </c>
       <c r="K3">
-        <v>-11.2</v>
-      </c>
-      <c r="L3">
-        <v>-5.463414634146342</v>
+        <v>-3.29</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +743,70 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>11.4</v>
+        <v>0.021</v>
       </c>
       <c r="V3">
-        <v>0.3904109589041096</v>
+        <v>0.007446808510638299</v>
       </c>
       <c r="W3">
-        <v>0.6956521739130433</v>
+        <v>-2.05625</v>
       </c>
       <c r="X3">
-        <v>0.1066593083033213</v>
+        <v>0.05312159796641337</v>
       </c>
       <c r="Y3">
-        <v>0.588992865609722</v>
+        <v>-2.109371597966413</v>
       </c>
       <c r="Z3">
-        <v>-2.136410459255599</v>
+        <v>-0</v>
       </c>
       <c r="AA3">
-        <v>31.52413209278034</v>
+        <v>23.75000000000002</v>
       </c>
       <c r="AB3">
-        <v>0.09544450004051405</v>
+        <v>0.05312159796641337</v>
       </c>
       <c r="AC3">
-        <v>31.42868759273983</v>
+        <v>23.69687840203361</v>
       </c>
       <c r="AD3">
-        <v>18.1</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1.140446562541971</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>19.24044656254197</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>7.840446562541972</v>
+        <v>-0.021</v>
       </c>
       <c r="AH3">
-        <v>0.397197960132354</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.925884538002716</v>
+        <v>-0</v>
       </c>
       <c r="AJ3">
-        <v>0.2116725712068172</v>
+        <v>-0.007502679528403002</v>
       </c>
       <c r="AK3">
-        <v>-5.562362060342559</v>
+        <v>0.07806691449814127</v>
       </c>
       <c r="AL3">
-        <v>4.26</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>4.146</v>
+        <v>-0.01</v>
       </c>
       <c r="AN3">
-        <v>-0.6069548304885819</v>
-      </c>
-      <c r="AO3">
-        <v>-7.15962441314554</v>
+        <v>-0</v>
       </c>
       <c r="AP3">
-        <v>-0.2629169565924004</v>
+        <v>0.007446808510638299</v>
       </c>
       <c r="AQ3">
-        <v>-7.356488181379643</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +817,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MedX Health Corp (TSXV:MDX)</t>
+          <t>Sona Nanotech Inc. (CNSX:SONA)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -846,26 +825,8 @@
           <t>Healthcare Products</t>
         </is>
       </c>
-      <c r="D4">
-        <v>0.0274</v>
-      </c>
-      <c r="G4">
-        <v>-3.210818307905686</v>
-      </c>
-      <c r="H4">
-        <v>-4.049930651872399</v>
-      </c>
-      <c r="I4">
-        <v>-3.106954970910994</v>
-      </c>
-      <c r="J4">
-        <v>-3.106954970910994</v>
-      </c>
       <c r="K4">
-        <v>-2.34</v>
-      </c>
-      <c r="L4">
-        <v>-3.245492371705964</v>
+        <v>-2.44</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -889,73 +850,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.001060606060606061</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>2.671232876712329</v>
+        <v>4.192439862542956</v>
       </c>
       <c r="X4">
-        <v>0.0800111132908411</v>
+        <v>0.05324973136362797</v>
       </c>
       <c r="Y4">
-        <v>2.591221763421488</v>
+        <v>4.139190131179328</v>
       </c>
       <c r="Z4">
-        <v>-1.485289260905901</v>
+        <v>-0</v>
       </c>
       <c r="AA4">
-        <v>4.614726852412306</v>
+        <v>15.70422535211269</v>
       </c>
       <c r="AB4">
-        <v>0.07783505381526244</v>
+        <v>0.05312604610663699</v>
       </c>
       <c r="AC4">
-        <v>4.536891798597043</v>
+        <v>15.65109930600605</v>
       </c>
       <c r="AD4">
-        <v>0.53</v>
+        <v>0.73</v>
       </c>
       <c r="AE4">
-        <v>0.04557267013413226</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.5755726701341323</v>
+        <v>0.73</v>
       </c>
       <c r="AG4">
-        <v>0.5615726701341323</v>
+        <v>0.73</v>
       </c>
       <c r="AH4">
-        <v>0.04178212288640396</v>
+        <v>0.003962438256527167</v>
       </c>
       <c r="AI4">
-        <v>-0.4481161812356009</v>
+        <v>-0.8111111111111111</v>
       </c>
       <c r="AJ4">
-        <v>0.04080730332172556</v>
+        <v>0.003962438256527167</v>
       </c>
       <c r="AK4">
-        <v>-0.4325021949377365</v>
+        <v>-0.8111111111111111</v>
       </c>
       <c r="AL4">
-        <v>0.08699999999999999</v>
+        <v>0.044</v>
       </c>
       <c r="AM4">
-        <v>0.08699999999999999</v>
+        <v>0.044</v>
       </c>
       <c r="AN4">
-        <v>-0.2463970246397024</v>
+        <v>-0.3348623853211009</v>
       </c>
       <c r="AO4">
-        <v>-25.97701149425287</v>
+        <v>-50.68181818181819</v>
       </c>
       <c r="AP4">
-        <v>-0.2610751604528741</v>
+        <v>-0.3348623853211009</v>
       </c>
       <c r="AQ4">
-        <v>-25.97701149425287</v>
+        <v>-50.68181818181819</v>
       </c>
     </row>
     <row r="5">
@@ -966,7 +927,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Titan Medical Inc. (TSX:TMD)</t>
+          <t>Therma Bright Inc. (TSXV:THRM)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -974,8 +935,26 @@
           <t>Healthcare Products</t>
         </is>
       </c>
+      <c r="D5">
+        <v>0.142</v>
+      </c>
+      <c r="G5">
+        <v>-23.75000000000001</v>
+      </c>
+      <c r="H5">
+        <v>-113.25</v>
+      </c>
+      <c r="I5">
+        <v>-780</v>
+      </c>
+      <c r="J5">
+        <v>-780</v>
+      </c>
       <c r="K5">
-        <v>-52.7</v>
+        <v>-3.13</v>
+      </c>
+      <c r="L5">
+        <v>-782.5</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -999,70 +978,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.17</v>
+        <v>0.247</v>
       </c>
       <c r="V5">
-        <v>0.06030927835051546</v>
+        <v>0.007373134328358209</v>
       </c>
       <c r="W5">
-        <v>-4.391666666666667</v>
+        <v>11.81132075471698</v>
       </c>
       <c r="X5">
-        <v>0.07821750961402121</v>
+        <v>0.05315524902932937</v>
       </c>
       <c r="Y5">
-        <v>-4.469884176280688</v>
+        <v>11.75816550568765</v>
       </c>
       <c r="Z5">
-        <v>-0</v>
+        <v>-0.0198019801980198</v>
       </c>
       <c r="AA5">
-        <v>4.159193537684377</v>
+        <v>15.44554455445545</v>
       </c>
       <c r="AB5">
-        <v>0.07821796174755209</v>
+        <v>0.05312276958349586</v>
       </c>
       <c r="AC5">
-        <v>4.080975575936825</v>
+        <v>15.39242178487195</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.035</v>
       </c>
       <c r="AE5">
-        <v>0.04246860034336315</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.04246860034336315</v>
+        <v>0.035</v>
       </c>
       <c r="AG5">
-        <v>-1.127531399656637</v>
+        <v>-0.212</v>
       </c>
       <c r="AH5">
-        <v>0.002184321405699127</v>
+        <v>0.00104368570150589</v>
       </c>
       <c r="AI5">
-        <v>-0.002519265682294869</v>
+        <v>0.04710632570659489</v>
       </c>
       <c r="AJ5">
-        <v>-0.06170657201925354</v>
+        <v>-0.006368661379476088</v>
       </c>
       <c r="AK5">
-        <v>0.06254496939487303</v>
+        <v>-0.4274193548387097</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AM5">
-        <v>-0.225</v>
+        <v>0.01</v>
       </c>
       <c r="AN5">
-        <v>-0</v>
+        <v>-0.01121794871794872</v>
+      </c>
+      <c r="AO5">
+        <v>-312</v>
       </c>
       <c r="AP5">
-        <v>0.01580215827865173</v>
+        <v>0.06794871794871794</v>
       </c>
       <c r="AQ5">
-        <v>317.3333333333334</v>
+        <v>-312</v>
       </c>
     </row>
     <row r="6">
@@ -1073,7 +1055,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sona Nanotech Inc. (CNSX:SONA)</t>
+          <t>Neovasc Inc. (TSX:NVCN)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1081,8 +1063,26 @@
           <t>Healthcare Products</t>
         </is>
       </c>
+      <c r="D6">
+        <v>-0.309</v>
+      </c>
+      <c r="G6">
+        <v>-4.079601990049751</v>
+      </c>
+      <c r="H6">
+        <v>-14.77611940298508</v>
+      </c>
+      <c r="I6">
+        <v>-17.61194029850746</v>
+      </c>
+      <c r="J6">
+        <v>-17.61194029850746</v>
+      </c>
       <c r="K6">
-        <v>-5.03</v>
+        <v>-36.6</v>
+      </c>
+      <c r="L6">
+        <v>-18.2089552238806</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1106,73 +1106,73 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.475</v>
+        <v>14</v>
       </c>
       <c r="V6">
-        <v>0.08589511754068715</v>
+        <v>0.5017921146953406</v>
       </c>
       <c r="W6">
-        <v>5.889929742388759</v>
+        <v>3.956756756756757</v>
       </c>
       <c r="X6">
-        <v>0.08528852471853231</v>
+        <v>0.06489688541996898</v>
       </c>
       <c r="Y6">
-        <v>5.804641217670227</v>
+        <v>3.891859871336788</v>
       </c>
       <c r="Z6">
-        <v>-0</v>
+        <v>-0.7882352941176473</v>
       </c>
       <c r="AA6">
-        <v>2.654867256637168</v>
+        <v>13.88235294117648</v>
       </c>
       <c r="AB6">
-        <v>0.07714530515026899</v>
+        <v>0.05342213026816627</v>
       </c>
       <c r="AC6">
-        <v>2.577721951486899</v>
+        <v>13.82893081090831</v>
       </c>
       <c r="AD6">
-        <v>0.915</v>
+        <v>10.2</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.915</v>
+        <v>10.2</v>
       </c>
       <c r="AG6">
-        <v>0.4400000000000001</v>
+        <v>-3.800000000000001</v>
       </c>
       <c r="AH6">
-        <v>0.1419705197827773</v>
+        <v>0.2677165354330709</v>
       </c>
       <c r="AI6">
-        <v>2.747747747747747</v>
+        <v>0.9398323044319542</v>
       </c>
       <c r="AJ6">
-        <v>0.07370184254606366</v>
+        <v>-0.1576763485477179</v>
       </c>
       <c r="AK6">
-        <v>-3.098591549295777</v>
+        <v>1.207499205592628</v>
       </c>
       <c r="AL6">
-        <v>0.109</v>
+        <v>0.863</v>
       </c>
       <c r="AM6">
-        <v>0.109</v>
+        <v>0.202</v>
       </c>
       <c r="AN6">
-        <v>-0.7887931034482759</v>
+        <v>-0.288135593220339</v>
       </c>
       <c r="AO6">
-        <v>-11.00917431192661</v>
+        <v>-41.01969872537659</v>
       </c>
       <c r="AP6">
-        <v>-0.3793103448275863</v>
+        <v>0.1073446327683616</v>
       </c>
       <c r="AQ6">
-        <v>-11.00917431192661</v>
+        <v>-175.2475247524753</v>
       </c>
     </row>
     <row r="7">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Therma Bright Inc. (TSXV:THRM)</t>
+          <t>Cognetivity Neurosciences Ltd. (CNSX:CGN)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1191,23 +1191,8 @@
           <t>Healthcare Products</t>
         </is>
       </c>
-      <c r="G7">
-        <v>-59.59999999999999</v>
-      </c>
-      <c r="H7">
-        <v>-61.2</v>
-      </c>
-      <c r="I7">
-        <v>-37.2</v>
-      </c>
-      <c r="J7">
-        <v>-37.2</v>
-      </c>
       <c r="K7">
-        <v>-0.198</v>
-      </c>
-      <c r="L7">
-        <v>-39.6</v>
+        <v>-0.9409999999999999</v>
       </c>
       <c r="M7">
         <v>-0</v>
@@ -1231,73 +1216,73 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.006</v>
+        <v>0.191</v>
       </c>
       <c r="V7">
-        <v>0.003191489361702128</v>
+        <v>0.004811083123425692</v>
       </c>
       <c r="W7">
-        <v>2.64</v>
+        <v>2.163218390804598</v>
       </c>
       <c r="X7">
-        <v>0.07971220613831466</v>
+        <v>0.05334065076531602</v>
       </c>
       <c r="Y7">
-        <v>2.560287793861685</v>
+        <v>2.109877740039281</v>
       </c>
       <c r="Z7">
-        <v>-0.05494505494505495</v>
+        <v>-0</v>
       </c>
       <c r="AA7">
-        <v>2.043956043956044</v>
+        <v>8.012422360248449</v>
       </c>
       <c r="AB7">
-        <v>0.0778789725705652</v>
+        <v>0.05318352268283828</v>
       </c>
       <c r="AC7">
-        <v>1.966077071385479</v>
+        <v>7.959238837565611</v>
       </c>
       <c r="AD7">
-        <v>0.06900000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.06900000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="AG7">
-        <v>0.063</v>
+        <v>0.07900000000000001</v>
       </c>
       <c r="AH7">
-        <v>0.03540277065161622</v>
+        <v>0.006755066299724793</v>
       </c>
       <c r="AI7">
-        <v>-0.3520408163265306</v>
+        <v>-0.7917888563049854</v>
       </c>
       <c r="AJ7">
-        <v>0.03242408646423058</v>
+        <v>0.001985972498051736</v>
       </c>
       <c r="AK7">
-        <v>-0.3118811881188119</v>
+        <v>-0.1484962406015038</v>
       </c>
       <c r="AL7">
-        <v>0.012</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="AM7">
-        <v>0.012</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="AN7">
-        <v>-0.372972972972973</v>
+        <v>-0.2109375</v>
       </c>
       <c r="AO7">
-        <v>-15.5</v>
+        <v>-17.91666666666667</v>
       </c>
       <c r="AP7">
-        <v>-0.3405405405405406</v>
+        <v>-0.06171875000000001</v>
       </c>
       <c r="AQ7">
-        <v>-15.5</v>
+        <v>-17.91666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -1308,7 +1293,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lexington Biosciences, Inc. (CNSX:LNB)</t>
+          <t>MedX Health Corp (TSXV:MDX)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1316,8 +1301,26 @@
           <t>Healthcare Products</t>
         </is>
       </c>
+      <c r="D8">
+        <v>-0.129</v>
+      </c>
+      <c r="G8">
+        <v>-5.076923076923077</v>
+      </c>
+      <c r="H8">
+        <v>-5.999999999999999</v>
+      </c>
+      <c r="I8">
+        <v>-6.794871794871795</v>
+      </c>
+      <c r="J8">
+        <v>-6.794871794871795</v>
+      </c>
       <c r="K8">
-        <v>-0.516</v>
+        <v>-2.79</v>
+      </c>
+      <c r="L8">
+        <v>-7.153846153846153</v>
       </c>
       <c r="M8">
         <v>-0</v>
@@ -1341,61 +1344,73 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.013</v>
+        <v>0.125</v>
       </c>
       <c r="V8">
-        <v>0.1494252873563219</v>
+        <v>0.007861635220125786</v>
       </c>
       <c r="W8">
-        <v>1.535714285714286</v>
+        <v>1.5</v>
       </c>
       <c r="X8">
-        <v>0.211034036327476</v>
+        <v>0.05394201269437891</v>
       </c>
       <c r="Y8">
-        <v>1.32468024938681</v>
+        <v>1.446057987305621</v>
       </c>
       <c r="Z8">
-        <v>-0</v>
+        <v>-0.2901785714285714</v>
       </c>
       <c r="AA8">
-        <v>1.970711297071129</v>
+        <v>1.97172619047619</v>
       </c>
       <c r="AB8">
-        <v>0.07293014452115934</v>
+        <v>0.0530731687728074</v>
       </c>
       <c r="AC8">
-        <v>1.89778115254997</v>
+        <v>1.918653021703383</v>
       </c>
       <c r="AD8">
-        <v>0.267</v>
+        <v>0.405</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.267</v>
+        <v>0.405</v>
       </c>
       <c r="AG8">
-        <v>0.254</v>
+        <v>0.28</v>
       </c>
       <c r="AH8">
-        <v>0.7542372881355933</v>
+        <v>0.02483900643974241</v>
       </c>
       <c r="AI8">
-        <v>-0.7335164835164836</v>
+        <v>-0.6183206106870229</v>
       </c>
       <c r="AJ8">
-        <v>0.744868035190616</v>
+        <v>0.0173053152039555</v>
       </c>
       <c r="AK8">
-        <v>-0.6737400530503979</v>
+        <v>-0.358974358974359</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>0.056</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>0.056</v>
+      </c>
+      <c r="AN8">
+        <v>-0.1545801526717557</v>
+      </c>
+      <c r="AO8">
+        <v>-47.32142857142857</v>
+      </c>
+      <c r="AP8">
+        <v>-0.1068702290076336</v>
+      </c>
+      <c r="AQ8">
+        <v>-47.32142857142857</v>
       </c>
     </row>
     <row r="9">
@@ -1406,7 +1421,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Medifocus Inc. (OTCPK:MDFZ.F)</t>
+          <t>CVR Medical Corp. (TSXV:CVM)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1414,26 +1429,8 @@
           <t>Healthcare Products</t>
         </is>
       </c>
-      <c r="D9">
-        <v>-0.135</v>
-      </c>
-      <c r="G9">
-        <v>-0.01942148760330578</v>
-      </c>
-      <c r="H9">
-        <v>-0.06033057851239669</v>
-      </c>
-      <c r="I9">
-        <v>-0.304945398636134</v>
-      </c>
-      <c r="J9">
-        <v>-0.304945398636134</v>
-      </c>
       <c r="K9">
-        <v>-1.76</v>
-      </c>
-      <c r="L9">
-        <v>-0.7272727272727273</v>
+        <v>-2.21</v>
       </c>
       <c r="M9">
         <v>-0</v>
@@ -1457,73 +1454,73 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.077</v>
+        <v>0.006</v>
       </c>
       <c r="V9">
-        <v>0.08671171171171171</v>
+        <v>0.002419354838709678</v>
       </c>
       <c r="W9">
-        <v>0.1692307692307692</v>
+        <v>1.740157480314961</v>
       </c>
       <c r="X9">
-        <v>0.3929283218521699</v>
+        <v>0.05734251902053715</v>
       </c>
       <c r="Y9">
-        <v>-0.2236975526214006</v>
+        <v>1.682814961294423</v>
       </c>
       <c r="Z9">
-        <v>-0.5966233078534068</v>
+        <v>-0</v>
       </c>
       <c r="AA9">
-        <v>0.181937532448966</v>
+        <v>1.284329563812601</v>
       </c>
       <c r="AB9">
-        <v>0.1164587509893996</v>
+        <v>0.05712178040853196</v>
       </c>
       <c r="AC9">
-        <v>0.06547878145956638</v>
+        <v>1.227207783404069</v>
       </c>
       <c r="AD9">
-        <v>6.18</v>
+        <v>0.325</v>
       </c>
       <c r="AE9">
-        <v>0.2748393234972207</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>6.454839323497221</v>
+        <v>0.325</v>
       </c>
       <c r="AG9">
-        <v>6.377839323497221</v>
+        <v>0.319</v>
       </c>
       <c r="AH9">
-        <v>0.8790658543816445</v>
+        <v>0.1158645276292335</v>
       </c>
       <c r="AI9">
-        <v>-1.207604357315687</v>
+        <v>-0.1473922902494331</v>
       </c>
       <c r="AJ9">
-        <v>0.8777842503166469</v>
+        <v>0.1139692747409789</v>
       </c>
       <c r="AK9">
-        <v>-1.176254210085644</v>
+        <v>-0.1442786069651741</v>
       </c>
       <c r="AL9">
-        <v>0.984</v>
+        <v>0.076</v>
       </c>
       <c r="AM9">
-        <v>0.984</v>
+        <v>0.074</v>
       </c>
       <c r="AN9">
-        <v>-15.14705882352941</v>
+        <v>-0.2044025157232705</v>
       </c>
       <c r="AO9">
-        <v>-0.7815040650406504</v>
+        <v>-20.92105263157895</v>
       </c>
       <c r="AP9">
-        <v>-15.63195912621868</v>
+        <v>-0.20062893081761</v>
       </c>
       <c r="AQ9">
-        <v>-0.7815040650406504</v>
+        <v>-21.48648648648649</v>
       </c>
     </row>
     <row r="10">
@@ -1534,7 +1531,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MedMira Inc. (TSXV:MIR)</t>
+          <t>VentriPoint Diagnostics Ltd. (TSXV:VPT)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1542,8 +1539,26 @@
           <t>Healthcare Products</t>
         </is>
       </c>
+      <c r="D10">
+        <v>-0.172</v>
+      </c>
+      <c r="G10">
+        <v>-76.82758620689654</v>
+      </c>
+      <c r="H10">
+        <v>-86.55172413793102</v>
+      </c>
+      <c r="I10">
+        <v>-47.58620689655172</v>
+      </c>
+      <c r="J10">
+        <v>-47.58620689655172</v>
+      </c>
       <c r="K10">
-        <v>0</v>
+        <v>-1.76</v>
+      </c>
+      <c r="L10">
+        <v>-60.68965517241379</v>
       </c>
       <c r="M10">
         <v>-0</v>
@@ -1551,77 +1566,89 @@
       <c r="N10">
         <v>-0</v>
       </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
       <c r="P10">
         <v>-0</v>
       </c>
       <c r="Q10">
         <v>-0</v>
       </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>0.222</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="W10">
-        <v>-0</v>
+        <v>0.9312169312169313</v>
       </c>
       <c r="X10">
-        <v>0.08434673567463057</v>
+        <v>0.05689551537665442</v>
       </c>
       <c r="Y10">
-        <v>-0.08434673567463057</v>
+        <v>0.8743214158402769</v>
       </c>
       <c r="Z10">
-        <v>-0</v>
+        <v>-0.02098408104196816</v>
       </c>
       <c r="AA10">
-        <v>-0.02170600098673125</v>
+        <v>0.9985528219971056</v>
       </c>
       <c r="AB10">
-        <v>0.07725762111659119</v>
+        <v>0.05323933511016882</v>
       </c>
       <c r="AC10">
-        <v>-0.09896362210332245</v>
+        <v>0.9453134868869368</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>0.737</v>
       </c>
       <c r="AE10">
-        <v>0.7243231391205499</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.7243231391205499</v>
+        <v>0.737</v>
       </c>
       <c r="AG10">
-        <v>0.7243231391205499</v>
+        <v>0.515</v>
       </c>
       <c r="AH10">
-        <v>0.125656234329545</v>
+        <v>0.1048811726198947</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>-0.5929203539823009</v>
       </c>
       <c r="AJ10">
-        <v>0.125656234329545</v>
+        <v>0.07567964731814843</v>
       </c>
       <c r="AK10">
-        <v>1</v>
+        <v>-0.3515358361774745</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>0.408</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>0.408</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>-0.5419117647058823</v>
+      </c>
+      <c r="AO10">
+        <v>-3.382352941176471</v>
       </c>
       <c r="AP10">
-        <v>3.733624428456443</v>
+        <v>-0.3786764705882353</v>
+      </c>
+      <c r="AQ10">
+        <v>-3.382352941176471</v>
       </c>
     </row>
     <row r="11">
@@ -1632,7 +1659,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Apteryx Imaging Inc. (TSXV:XRAY)</t>
+          <t>Lexington Biosciences, Inc. (OTCPK:LXGT.F)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1640,26 +1667,8 @@
           <t>Healthcare Products</t>
         </is>
       </c>
-      <c r="D11">
-        <v>0.268</v>
-      </c>
-      <c r="G11">
-        <v>0.1227210884353741</v>
-      </c>
-      <c r="H11">
-        <v>-0.05074829931972789</v>
-      </c>
-      <c r="I11">
-        <v>-0.02040119876840459</v>
-      </c>
-      <c r="J11">
-        <v>-0.02040119876840459</v>
-      </c>
       <c r="K11">
-        <v>-0.755</v>
-      </c>
-      <c r="L11">
-        <v>-0.05136054421768708</v>
+        <v>-0.922</v>
       </c>
       <c r="M11">
         <v>-0</v>
@@ -1683,73 +1692,67 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>2.47</v>
+        <v>0.063</v>
       </c>
       <c r="V11">
-        <v>0.2375</v>
+        <v>0.2</v>
       </c>
       <c r="W11">
-        <v>-0.2169540229885057</v>
+        <v>1.461172741679873</v>
       </c>
       <c r="X11">
-        <v>0.1139122899700123</v>
+        <v>0.0533260987569233</v>
       </c>
       <c r="Y11">
-        <v>-0.3308663129585181</v>
+        <v>1.40784664292295</v>
       </c>
       <c r="Z11">
-        <v>1.933068970372757</v>
+        <v>-0</v>
       </c>
       <c r="AA11">
-        <v>-0.0394369242976098</v>
+        <v>0.9469496021220158</v>
       </c>
       <c r="AB11">
-        <v>0.07500764750143167</v>
+        <v>0.05312868046823609</v>
       </c>
       <c r="AC11">
-        <v>-0.1144445717990415</v>
+        <v>0.8938209216537798</v>
       </c>
       <c r="AD11">
-        <v>8.35</v>
+        <v>0.002</v>
       </c>
       <c r="AE11">
-        <v>0.2444881094777371</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>8.594488109477737</v>
+        <v>0.002</v>
       </c>
       <c r="AG11">
-        <v>6.124488109477737</v>
+        <v>-0.061</v>
       </c>
       <c r="AH11">
-        <v>0.4524727415628179</v>
+        <v>0.006309148264984227</v>
       </c>
       <c r="AI11">
-        <v>0.7177332367698667</v>
+        <v>-0.01136363636363636</v>
       </c>
       <c r="AJ11">
-        <v>0.3706310337059696</v>
+        <v>-0.2401574803149606</v>
       </c>
       <c r="AK11">
-        <v>0.6443785334815124</v>
+        <v>0.2552301255230126</v>
       </c>
       <c r="AL11">
-        <v>1.23</v>
+        <v>0.091</v>
       </c>
       <c r="AM11">
-        <v>1.23</v>
-      </c>
-      <c r="AN11">
-        <v>-14.70070422535211</v>
+        <v>0.091</v>
       </c>
       <c r="AO11">
-        <v>-0.2796747967479675</v>
-      </c>
-      <c r="AP11">
-        <v>-10.78254948851714</v>
+        <v>-3.923076923076923</v>
       </c>
       <c r="AQ11">
-        <v>-0.2796747967479675</v>
+        <v>-3.923076923076923</v>
       </c>
     </row>
     <row r="12">
@@ -1760,7 +1763,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Aurora Spine Corporation (TSXV:ASG)</t>
+          <t>Imaging Dynamics Company Ltd. (TSXV:IDL)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1769,25 +1772,25 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.506</v>
+        <v>-0.334</v>
       </c>
       <c r="G12">
-        <v>0.09536363636363636</v>
+        <v>-2.584507042253521</v>
       </c>
       <c r="H12">
-        <v>0.07927272727272727</v>
+        <v>-2.091549295774648</v>
       </c>
       <c r="I12">
-        <v>-0.04828722457842726</v>
+        <v>-2.535211267605634</v>
       </c>
       <c r="J12">
-        <v>-0.04828722457842726</v>
+        <v>-2.535211267605634</v>
       </c>
       <c r="K12">
-        <v>-0.756</v>
+        <v>-2.11</v>
       </c>
       <c r="L12">
-        <v>-0.06872727272727273</v>
+        <v>-7.429577464788733</v>
       </c>
       <c r="M12">
         <v>-0</v>
@@ -1811,73 +1814,73 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>0.448</v>
+        <v>0.035</v>
       </c>
       <c r="V12">
-        <v>0.04838012958963283</v>
+        <v>0.004315659679408139</v>
       </c>
       <c r="W12">
-        <v>-0.312396694214876</v>
+        <v>1.562962962962963</v>
       </c>
       <c r="X12">
-        <v>0.09175962547463618</v>
+        <v>0.05575470324348157</v>
       </c>
       <c r="Y12">
-        <v>-0.4041563196895122</v>
+        <v>1.507208259719481</v>
       </c>
       <c r="Z12">
-        <v>2.641184929492479</v>
+        <v>-0.2955254942767949</v>
       </c>
       <c r="AA12">
-        <v>-0.1275354898435609</v>
+        <v>0.7492195629552547</v>
       </c>
       <c r="AB12">
-        <v>0.08328577754736551</v>
+        <v>0.0532064341963565</v>
       </c>
       <c r="AC12">
-        <v>-0.2108212673909264</v>
+        <v>0.6960131287588982</v>
       </c>
       <c r="AD12">
-        <v>2.54</v>
+        <v>0.663</v>
       </c>
       <c r="AE12">
-        <v>0.3757973518134992</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>2.915797351813499</v>
+        <v>0.663</v>
       </c>
       <c r="AG12">
-        <v>2.467797351813499</v>
+        <v>0.628</v>
       </c>
       <c r="AH12">
-        <v>0.2394748588172923</v>
+        <v>0.07557278012082527</v>
       </c>
       <c r="AI12">
-        <v>0.5558349200823576</v>
+        <v>-1.517162471395881</v>
       </c>
       <c r="AJ12">
-        <v>0.210422918966271</v>
+        <v>0.07186999313344015</v>
       </c>
       <c r="AK12">
-        <v>0.5143604806236151</v>
+        <v>-1.330508474576271</v>
       </c>
       <c r="AL12">
-        <v>0.169</v>
+        <v>0.293</v>
       </c>
       <c r="AM12">
-        <v>0.169</v>
+        <v>0.293</v>
       </c>
       <c r="AN12">
-        <v>7.791411042944785</v>
+        <v>-1.040816326530612</v>
       </c>
       <c r="AO12">
-        <v>-3.355029585798816</v>
+        <v>-2.457337883959045</v>
       </c>
       <c r="AP12">
-        <v>7.569930527035273</v>
+        <v>-0.9858712715855573</v>
       </c>
       <c r="AQ12">
-        <v>-3.355029585798816</v>
+        <v>-2.457337883959045</v>
       </c>
     </row>
     <row r="13">
@@ -1888,7 +1891,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Opsens Inc. (TSX:OPS)</t>
+          <t>Medifocus Inc. (OTCPK:MDFZ.F)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1897,25 +1900,25 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.37</v>
+        <v>-0.135</v>
       </c>
       <c r="G13">
-        <v>0.128130081300813</v>
+        <v>-0.01748878923766816</v>
       </c>
       <c r="H13">
-        <v>-0.02837398373983739</v>
+        <v>-0.06547085201793722</v>
       </c>
       <c r="I13">
-        <v>-0.05300936937060606</v>
+        <v>-0.3679004147377335</v>
       </c>
       <c r="J13">
-        <v>-0.05300936937060606</v>
+        <v>-0.3679004147377335</v>
       </c>
       <c r="K13">
-        <v>-1.47</v>
+        <v>-1.93</v>
       </c>
       <c r="L13">
-        <v>-0.05975609756097561</v>
+        <v>-0.8654708520179372</v>
       </c>
       <c r="M13">
         <v>-0</v>
@@ -1939,73 +1942,73 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>11.2</v>
+        <v>0.1</v>
       </c>
       <c r="V13">
-        <v>0.180064308681672</v>
+        <v>0.1358695652173913</v>
       </c>
       <c r="W13">
-        <v>-0.1027972027972028</v>
+        <v>0.1803738317757009</v>
       </c>
       <c r="X13">
-        <v>0.0839680223729096</v>
+        <v>0.3383228504797153</v>
       </c>
       <c r="Y13">
-        <v>-0.1867652251701124</v>
+        <v>-0.1579490187040143</v>
       </c>
       <c r="Z13">
-        <v>2.547334752322667</v>
+        <v>-0.5160949443789404</v>
       </c>
       <c r="AA13">
-        <v>-0.1350326087964536</v>
+        <v>0.1898715440810597</v>
       </c>
       <c r="AB13">
-        <v>0.07697185643847072</v>
+        <v>0.05413026217616519</v>
       </c>
       <c r="AC13">
-        <v>-0.2120044652349243</v>
+        <v>0.1357412819048945</v>
       </c>
       <c r="AD13">
-        <v>5.63</v>
+        <v>6.19</v>
       </c>
       <c r="AE13">
-        <v>2.765152432584546</v>
+        <v>0.3270896243257281</v>
       </c>
       <c r="AF13">
-        <v>8.395152432584545</v>
+        <v>6.517089624325728</v>
       </c>
       <c r="AG13">
-        <v>-2.804847567415454</v>
+        <v>6.417089624325729</v>
       </c>
       <c r="AH13">
-        <v>0.1189196728571635</v>
+        <v>0.898526002280246</v>
       </c>
       <c r="AI13">
-        <v>0.3905602651069511</v>
+        <v>-1.126956705353721</v>
       </c>
       <c r="AJ13">
-        <v>-0.04722350987480078</v>
+        <v>0.8971073985292926</v>
       </c>
       <c r="AK13">
-        <v>-0.2724435199752852</v>
+        <v>-1.090801867534865</v>
       </c>
       <c r="AL13">
-        <v>0.261</v>
+        <v>1.01</v>
       </c>
       <c r="AM13">
-        <v>0.11</v>
+        <v>1.01</v>
       </c>
       <c r="AN13">
-        <v>-56.86868686868688</v>
+        <v>-11.33699633699634</v>
       </c>
       <c r="AO13">
-        <v>-5.172413793103448</v>
+        <v>-0.8326732673267326</v>
       </c>
       <c r="AP13">
-        <v>28.33179361025712</v>
+        <v>-11.75291139986397</v>
       </c>
       <c r="AQ13">
-        <v>-12.27272727272727</v>
+        <v>-0.8326732673267326</v>
       </c>
     </row>
     <row r="14">
@@ -2016,7 +2019,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Imaging Dynamics Company Ltd. (TSXV:IDL)</t>
+          <t>Titan Medical Inc. (TSX:TMD)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2024,26 +2027,23 @@
           <t>Healthcare Products</t>
         </is>
       </c>
-      <c r="D14">
-        <v>-0.278</v>
-      </c>
       <c r="G14">
-        <v>-2.322784810126582</v>
+        <v>-5.469</v>
       </c>
       <c r="H14">
-        <v>-3.312236286919831</v>
+        <v>-5.92</v>
       </c>
       <c r="I14">
-        <v>-2.736649131083663</v>
+        <v>-0.135</v>
       </c>
       <c r="J14">
-        <v>-2.736649131083663</v>
+        <v>-0.135</v>
       </c>
       <c r="K14">
-        <v>3.76</v>
+        <v>-1.14</v>
       </c>
       <c r="L14">
-        <v>7.932489451476793</v>
+        <v>-0.114</v>
       </c>
       <c r="M14">
         <v>-0</v>
@@ -2052,7 +2052,7 @@
         <v>-0</v>
       </c>
       <c r="O14">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>-0</v>
@@ -2061,79 +2061,79 @@
         <v>-0</v>
       </c>
       <c r="R14">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="U14">
-        <v>0.027</v>
+        <v>24.7</v>
       </c>
       <c r="V14">
-        <v>0.01708860759493671</v>
+        <v>0.1778257739380849</v>
       </c>
       <c r="W14">
-        <v>-0.3269565217391304</v>
+        <v>0.06745562130177515</v>
       </c>
       <c r="X14">
-        <v>0.1114770915100586</v>
+        <v>0.05361551375256397</v>
       </c>
       <c r="Y14">
-        <v>-0.4384336132491891</v>
+        <v>0.01384010754921118</v>
       </c>
       <c r="Z14">
-        <v>0.1558770357938235</v>
+        <v>-0.5534034311012728</v>
       </c>
       <c r="AA14">
-        <v>-0.4265807545610641</v>
+        <v>0.07470946319867183</v>
       </c>
       <c r="AB14">
-        <v>0.07512738498969278</v>
+        <v>0.05402600825342931</v>
       </c>
       <c r="AC14">
-        <v>-0.5017081395507569</v>
+        <v>0.02068345494524253</v>
       </c>
       <c r="AD14">
-        <v>0.416</v>
+        <v>2.13</v>
       </c>
       <c r="AE14">
-        <v>0.8008584406682804</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>1.21685844066828</v>
+        <v>2.13</v>
       </c>
       <c r="AG14">
-        <v>1.18985844066828</v>
+        <v>-22.57</v>
       </c>
       <c r="AH14">
-        <v>0.4350804541889952</v>
+        <v>0.01510316953839608</v>
       </c>
       <c r="AI14">
-        <v>-9.139583814220618</v>
+        <v>0.3641025641025641</v>
       </c>
       <c r="AJ14">
-        <v>0.4295737367651195</v>
+        <v>-0.1940170205450013</v>
       </c>
       <c r="AK14">
-        <v>-7.430041555943571</v>
+        <v>1.197347480106101</v>
       </c>
       <c r="AL14">
-        <v>0.84</v>
+        <v>1.48</v>
       </c>
       <c r="AM14">
-        <v>0.84</v>
+        <v>1.46</v>
       </c>
       <c r="AN14">
-        <v>-0.4131082423038728</v>
+        <v>-1.625954198473282</v>
       </c>
       <c r="AO14">
-        <v>-1.642857142857143</v>
+        <v>-0.9121621621621623</v>
       </c>
       <c r="AP14">
-        <v>-1.181587329362741</v>
+        <v>17.22900763358778</v>
       </c>
       <c r="AQ14">
-        <v>-1.642857142857143</v>
+        <v>-0.9246575342465754</v>
       </c>
     </row>
     <row r="15">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Preferred Dental Technologies Inc. (CNSX:PDTI)</t>
+          <t>MedMira Inc. (TSXV:MIR)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2152,8 +2152,26 @@
           <t>Healthcare Products</t>
         </is>
       </c>
+      <c r="D15">
+        <v>-0.139</v>
+      </c>
+      <c r="G15">
+        <v>-0.4251366120218579</v>
+      </c>
+      <c r="H15">
+        <v>-0.526775956284153</v>
+      </c>
+      <c r="I15">
+        <v>-0.0546448087431694</v>
+      </c>
+      <c r="J15">
+        <v>-0.0546448087431694</v>
+      </c>
       <c r="K15">
-        <v>-0.478</v>
+        <v>-0.648</v>
+      </c>
+      <c r="L15">
+        <v>-0.3540983606557377</v>
       </c>
       <c r="M15">
         <v>-0</v>
@@ -2177,73 +2195,73 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>0.453</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>0.003578199052132702</v>
       </c>
       <c r="W15">
-        <v>-0.7913907284768212</v>
+        <v>0.06113207547169812</v>
       </c>
       <c r="X15">
-        <v>0.07973836847217979</v>
+        <v>0.05538334278752112</v>
       </c>
       <c r="Y15">
-        <v>-0.871129096949001</v>
+        <v>0.005748732684176999</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>-0.9068384539147676</v>
       </c>
       <c r="AA15">
-        <v>-0.6143842332720155</v>
+        <v>0.04955401387512391</v>
       </c>
       <c r="AB15">
-        <v>0.07787510517186877</v>
+        <v>0.05319525436489906</v>
       </c>
       <c r="AC15">
-        <v>-0.6922593384438843</v>
+        <v>-0.003641240489775148</v>
       </c>
       <c r="AD15">
-        <v>0.007</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="AE15">
-        <v>0.02448645337818307</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>0.03148645337818307</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="AG15">
-        <v>0.03148645337818307</v>
+        <v>8.437000000000001</v>
       </c>
       <c r="AH15">
-        <v>0.03596452378753358</v>
+        <v>0.06561369842792826</v>
       </c>
       <c r="AI15">
-        <v>0.0825362292667553</v>
+        <v>-3.848484848484851</v>
       </c>
       <c r="AJ15">
-        <v>0.03596452378753358</v>
+        <v>0.06247917237497871</v>
       </c>
       <c r="AK15">
-        <v>0.0825362292667553</v>
+        <v>-3.053564965617086</v>
       </c>
       <c r="AL15">
-        <v>0.008999999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="AM15">
-        <v>0.008999999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="AN15">
-        <v>-0.01842105263157895</v>
+        <v>-99.88764044943821</v>
       </c>
       <c r="AO15">
-        <v>-49.22222222222223</v>
+        <v>-0.1851851851851852</v>
       </c>
       <c r="AP15">
-        <v>-0.08285908783732387</v>
+        <v>-94.79775280898878</v>
       </c>
       <c r="AQ15">
-        <v>-49.22222222222223</v>
+        <v>-0.1851851851851852</v>
       </c>
     </row>
     <row r="16">
@@ -2254,7 +2272,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Aquarius Surgical Technologies Inc. (CNSX:ASTI)</t>
+          <t>Nanalysis Scientific Corp. (TSXV:NSCI)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2263,22 +2281,22 @@
         </is>
       </c>
       <c r="G16">
-        <v>-1.631944444444444</v>
+        <v>0.1762250453720508</v>
       </c>
       <c r="H16">
-        <v>-1.631944444444444</v>
+        <v>0.06769509981851179</v>
       </c>
       <c r="I16">
-        <v>-1.640199486249173</v>
+        <v>-0.3157894736842106</v>
       </c>
       <c r="J16">
-        <v>-1.640199486249173</v>
+        <v>-0.3157894736842106</v>
       </c>
       <c r="K16">
-        <v>-1.23</v>
+        <v>-1.84</v>
       </c>
       <c r="L16">
-        <v>-2.135416666666667</v>
+        <v>-0.3339382940108893</v>
       </c>
       <c r="M16">
         <v>-0</v>
@@ -2302,73 +2320,70 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0.025</v>
+        <v>3.35</v>
       </c>
       <c r="V16">
-        <v>0.004125412541254126</v>
+        <v>0.1361788617886179</v>
       </c>
       <c r="W16">
-        <v>29.28571428571428</v>
+        <v>-0.1642857142857143</v>
       </c>
       <c r="X16">
-        <v>0.08976284736532471</v>
+        <v>0.05695785822253409</v>
       </c>
       <c r="Y16">
-        <v>29.19595143834896</v>
+        <v>-0.2212435725082484</v>
       </c>
       <c r="Z16">
-        <v>0.6451797030939733</v>
+        <v>0.7366310160427808</v>
       </c>
       <c r="AA16">
-        <v>-1.058223417553129</v>
+        <v>-0.232620320855615</v>
       </c>
       <c r="AB16">
-        <v>0.08736095467838668</v>
+        <v>0.05291409016615833</v>
       </c>
       <c r="AC16">
-        <v>-1.145584372231516</v>
+        <v>-0.2855344110217733</v>
       </c>
       <c r="AD16">
-        <v>1.62</v>
+        <v>2.93</v>
       </c>
       <c r="AE16">
-        <v>0.008774520397618557</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>1.628774520397619</v>
+        <v>2.93</v>
       </c>
       <c r="AG16">
-        <v>1.603774520397619</v>
+        <v>-0.4199999999999999</v>
       </c>
       <c r="AH16">
-        <v>0.2118379874551696</v>
+        <v>0.1064293498002179</v>
       </c>
       <c r="AI16">
-        <v>1.437862956015198</v>
+        <v>0.2016517549896766</v>
       </c>
       <c r="AJ16">
-        <v>0.2092669240371141</v>
+        <v>-0.0173697270471464</v>
       </c>
       <c r="AK16">
-        <v>1.447744546265578</v>
+        <v>-0.03756708407871198</v>
       </c>
       <c r="AL16">
-        <v>0.226</v>
+        <v>0</v>
       </c>
       <c r="AM16">
-        <v>0.216</v>
+        <v>-0.124</v>
       </c>
       <c r="AN16">
-        <v>-1.968408262454435</v>
-      </c>
-      <c r="AO16">
-        <v>-4.20353982300885</v>
+        <v>-1.953333333333333</v>
       </c>
       <c r="AP16">
-        <v>-1.94869322041023</v>
+        <v>0.28</v>
       </c>
       <c r="AQ16">
-        <v>-4.398148148148148</v>
+        <v>14.03225806451613</v>
       </c>
     </row>
     <row r="17">
@@ -2379,7 +2394,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Relay Medical Corp. (CNSX:RELA)</t>
+          <t>Venus Concept Inc. (NasdaqGM:VERO)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2387,8 +2402,23 @@
           <t>Healthcare Products</t>
         </is>
       </c>
+      <c r="G17">
+        <v>-0.09035714285714286</v>
+      </c>
+      <c r="H17">
+        <v>-0.1904761904761905</v>
+      </c>
+      <c r="I17">
+        <v>-0.3364443578781124</v>
+      </c>
+      <c r="J17">
+        <v>-0.3364443578781124</v>
+      </c>
       <c r="K17">
-        <v>-4.67</v>
+        <v>-87.8</v>
+      </c>
+      <c r="L17">
+        <v>-1.045238095238095</v>
       </c>
       <c r="M17">
         <v>-0</v>
@@ -2412,67 +2442,73 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>0.471</v>
+        <v>12.8</v>
       </c>
       <c r="V17">
-        <v>0.02738372093023256</v>
+        <v>0.141280353200883</v>
       </c>
       <c r="W17">
-        <v>-1.139024390243903</v>
+        <v>-6.055172413793104</v>
       </c>
       <c r="X17">
-        <v>0.07964981151160012</v>
+        <v>0.08179554149442513</v>
       </c>
       <c r="Y17">
-        <v>-1.218674201755503</v>
+        <v>-6.136967955287528</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>0.8328654223604848</v>
       </c>
       <c r="AA17">
-        <v>-1.223261581602238</v>
+        <v>-0.2802128722249562</v>
       </c>
       <c r="AB17">
-        <v>0.07810601337226823</v>
+        <v>0.05365029715153788</v>
       </c>
       <c r="AC17">
-        <v>-1.301367594974506</v>
+        <v>-0.3338631693764941</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>74.5</v>
       </c>
       <c r="AE17">
-        <v>0.6064963486010457</v>
+        <v>6.156630308807219</v>
       </c>
       <c r="AF17">
-        <v>0.6064963486010457</v>
+        <v>80.65663030880722</v>
       </c>
       <c r="AG17">
-        <v>0.1354963486010458</v>
+        <v>67.85663030880723</v>
       </c>
       <c r="AH17">
-        <v>0.0340603977743603</v>
+        <v>0.4709693876573916</v>
       </c>
       <c r="AI17">
-        <v>0.1572661539848349</v>
+        <v>0.6878641326839242</v>
       </c>
       <c r="AJ17">
-        <v>0.00781612166599315</v>
+        <v>0.4282347174527519</v>
       </c>
       <c r="AK17">
-        <v>0.04002259481302809</v>
+        <v>0.6496153485729083</v>
       </c>
       <c r="AL17">
-        <v>0</v>
+        <v>8.85</v>
       </c>
       <c r="AM17">
-        <v>0</v>
+        <v>8.85</v>
       </c>
       <c r="AN17">
-        <v>-0</v>
+        <v>-3.336318853560233</v>
+      </c>
+      <c r="AO17">
+        <v>-3.288135593220339</v>
       </c>
       <c r="AP17">
-        <v>-0.03705123013427557</v>
+        <v>-3.038810134742823</v>
+      </c>
+      <c r="AQ17">
+        <v>-3.288135593220339</v>
       </c>
     </row>
     <row r="18">
@@ -2483,7 +2519,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SQI Diagnostics Inc. (TSXV:SQD)</t>
+          <t>Aurora Spine Corporation (TSXV:ASG)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2492,25 +2528,25 @@
         </is>
       </c>
       <c r="D18">
-        <v>0.7390000000000001</v>
+        <v>0.134</v>
       </c>
       <c r="G18">
-        <v>-0.8531468531468533</v>
+        <v>-0.06165158371040724</v>
       </c>
       <c r="H18">
-        <v>-3.636363636363637</v>
+        <v>-0.0910633484162896</v>
       </c>
       <c r="I18">
-        <v>-3.839998434849586</v>
+        <v>-0.1414027149321267</v>
       </c>
       <c r="J18">
-        <v>-3.839998434849586</v>
+        <v>-0.1414027149321267</v>
       </c>
       <c r="K18">
-        <v>-6.06</v>
+        <v>-0.777</v>
       </c>
       <c r="L18">
-        <v>-4.237762237762237</v>
+        <v>-0.08789592760180996</v>
       </c>
       <c r="M18">
         <v>-0</v>
@@ -2534,73 +2570,73 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>2.6</v>
+        <v>2.09</v>
       </c>
       <c r="V18">
-        <v>0.1830985915492958</v>
+        <v>0.1201149425287356</v>
       </c>
       <c r="W18">
-        <v>-4.094594594594595</v>
+        <v>-0.3334763948497854</v>
       </c>
       <c r="X18">
-        <v>0.08809880178924194</v>
+        <v>0.05773079897320829</v>
       </c>
       <c r="Y18">
-        <v>-4.182693396383836</v>
+        <v>-0.3912071938229937</v>
       </c>
       <c r="Z18">
-        <v>0.5160612685498314</v>
+        <v>1.999095431931253</v>
       </c>
       <c r="AA18">
-        <v>-1.981674463517844</v>
+        <v>-0.2826775214834917</v>
       </c>
       <c r="AB18">
-        <v>0.08628754008935635</v>
+        <v>0.05287751493885491</v>
       </c>
       <c r="AC18">
-        <v>-2.067962003607201</v>
+        <v>-0.3355550364223466</v>
       </c>
       <c r="AD18">
-        <v>2.44</v>
+        <v>2.49</v>
       </c>
       <c r="AE18">
-        <v>0.8309888091745405</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>3.270988809174541</v>
+        <v>2.49</v>
       </c>
       <c r="AG18">
-        <v>0.6709888091745406</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="AH18">
-        <v>0.1872240229160267</v>
+        <v>0.1251885369532428</v>
       </c>
       <c r="AI18">
-        <v>0.7398771972429579</v>
+        <v>0.430795847750865</v>
       </c>
       <c r="AJ18">
-        <v>0.04512065860479832</v>
+        <v>0.02247191011235957</v>
       </c>
       <c r="AK18">
-        <v>0.3684749767785239</v>
+        <v>0.1084010840108402</v>
       </c>
       <c r="AL18">
-        <v>0.496</v>
+        <v>0.091</v>
       </c>
       <c r="AM18">
-        <v>0.496</v>
+        <v>0.091</v>
       </c>
       <c r="AN18">
-        <v>-0.4914400805639476</v>
+        <v>-2.008064516129032</v>
       </c>
       <c r="AO18">
-        <v>-11.20967741935484</v>
+        <v>-13.73626373626374</v>
       </c>
       <c r="AP18">
-        <v>-0.1351437682123949</v>
+        <v>-0.3225806451612906</v>
       </c>
       <c r="AQ18">
-        <v>-11.20967741935484</v>
+        <v>-13.73626373626374</v>
       </c>
     </row>
     <row r="19">
@@ -2611,7 +2647,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bionik Laboratories Corp. (OTCPK:BNKL)</t>
+          <t>Opsens Inc. (TSX:OPS)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2619,23 +2655,26 @@
           <t>Healthcare Products</t>
         </is>
       </c>
+      <c r="D19">
+        <v>0.414</v>
+      </c>
       <c r="G19">
-        <v>-1.718654434250765</v>
+        <v>0.1044247787610619</v>
       </c>
       <c r="H19">
-        <v>-2.795107033639144</v>
+        <v>-0.08938053097345132</v>
       </c>
       <c r="I19">
-        <v>-3.00611620795107</v>
+        <v>-0.1234513274336283</v>
       </c>
       <c r="J19">
-        <v>-3.00611620795107</v>
+        <v>-0.1234513274336283</v>
       </c>
       <c r="K19">
-        <v>-11.3</v>
+        <v>-2.02</v>
       </c>
       <c r="L19">
-        <v>-3.45565749235474</v>
+        <v>-0.08938053097345132</v>
       </c>
       <c r="M19">
         <v>-0</v>
@@ -2659,73 +2698,73 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>4.68</v>
+        <v>8.34</v>
       </c>
       <c r="V19">
-        <v>0.8618784530386741</v>
+        <v>0.08844114528101803</v>
       </c>
       <c r="W19">
-        <v>-0.4200743494423793</v>
+        <v>-0.1541984732824428</v>
       </c>
       <c r="X19">
-        <v>0.07868100428136088</v>
+        <v>0.05647227727603298</v>
       </c>
       <c r="Y19">
-        <v>-0.4987553537237401</v>
+        <v>-0.2106707505584757</v>
       </c>
       <c r="Z19">
-        <v>0.7615277130880304</v>
+        <v>3.00132802124834</v>
       </c>
       <c r="AA19">
-        <v>-2.28924080111784</v>
+        <v>-0.3705179282868525</v>
       </c>
       <c r="AB19">
-        <v>0.07867773968141628</v>
+        <v>0.05293788086763913</v>
       </c>
       <c r="AC19">
-        <v>-2.367918540799257</v>
+        <v>-0.4234558091544917</v>
       </c>
       <c r="AD19">
-        <v>0.07000000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="AE19">
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>0.07000000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="AG19">
-        <v>-4.609999999999999</v>
+        <v>1.470000000000001</v>
       </c>
       <c r="AH19">
-        <v>0.01272727272727273</v>
+        <v>0.09422725962923831</v>
       </c>
       <c r="AI19">
-        <v>0.002182725288431556</v>
+        <v>0.4539565016196206</v>
       </c>
       <c r="AJ19">
-        <v>-5.621951219512193</v>
+        <v>0.01534927430301765</v>
       </c>
       <c r="AK19">
-        <v>-0.1683096020445418</v>
+        <v>0.1107761868877167</v>
       </c>
       <c r="AL19">
-        <v>1.16</v>
+        <v>0.638</v>
       </c>
       <c r="AM19">
-        <v>1.16</v>
+        <v>0.524</v>
       </c>
       <c r="AN19">
-        <v>-0.007391763463569166</v>
+        <v>-4.856435643564357</v>
       </c>
       <c r="AO19">
-        <v>-8.474137931034484</v>
+        <v>-4.373040752351097</v>
       </c>
       <c r="AP19">
-        <v>0.4868004223864835</v>
+        <v>-0.727722772277228</v>
       </c>
       <c r="AQ19">
-        <v>-8.474137931034484</v>
+        <v>-5.324427480916031</v>
       </c>
     </row>
     <row r="20">
@@ -2736,7 +2775,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nextleaf Solutions Ltd. (CNSX:OILS)</t>
+          <t>World Class Extractions Inc. (CNSX:PUMP)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2745,22 +2784,22 @@
         </is>
       </c>
       <c r="G20">
-        <v>-10.19424460431655</v>
+        <v>-2.634508816120907</v>
       </c>
       <c r="H20">
-        <v>-10.64748201438849</v>
+        <v>-2.871536523929471</v>
       </c>
       <c r="I20">
-        <v>-34.12680974516039</v>
+        <v>-2.493702770780856</v>
       </c>
       <c r="J20">
-        <v>-34.12680974516039</v>
+        <v>-2.493702770780856</v>
       </c>
       <c r="K20">
-        <v>-5.76</v>
+        <v>-32.1</v>
       </c>
       <c r="L20">
-        <v>-41.43884892086331</v>
+        <v>-8.085642317380353</v>
       </c>
       <c r="M20">
         <v>-0</v>
@@ -2784,70 +2823,73 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>4.2</v>
+        <v>1.02</v>
       </c>
       <c r="V20">
-        <v>0.1561338289962825</v>
+        <v>0.1385869565217391</v>
       </c>
       <c r="W20">
-        <v>-2.451063829787234</v>
+        <v>-0.8770491803278688</v>
       </c>
       <c r="X20">
-        <v>0.0784738906994065</v>
+        <v>0.06484982944389178</v>
       </c>
       <c r="Y20">
-        <v>-2.52953772048664</v>
+        <v>-0.9418990097717606</v>
       </c>
       <c r="Z20">
-        <v>0.06887554766834909</v>
+        <v>0.3168143005346739</v>
       </c>
       <c r="AA20">
-        <v>-2.350502711371475</v>
+        <v>-0.7900406990663152</v>
       </c>
       <c r="AB20">
-        <v>0.07806732586977501</v>
+        <v>0.05342124987121948</v>
       </c>
       <c r="AC20">
-        <v>-2.42857003724125</v>
+        <v>-0.8434619489375347</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="AE20">
-        <v>0.218132772886476</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>0.218132772886476</v>
+        <v>2.68</v>
       </c>
       <c r="AG20">
-        <v>-3.981867227113524</v>
+        <v>1.66</v>
       </c>
       <c r="AH20">
-        <v>0.008043797657948328</v>
+        <v>0.2669322709163346</v>
       </c>
       <c r="AI20">
-        <v>0.02706989063526431</v>
+        <v>0.2233333333333334</v>
       </c>
       <c r="AJ20">
-        <v>-0.1737430909652601</v>
+        <v>0.1840354767184036</v>
       </c>
       <c r="AK20">
-        <v>-1.032071072073156</v>
+        <v>0.151183970856102</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>0.296</v>
       </c>
       <c r="AM20">
-        <v>-0.008</v>
+        <v>0.03399999999999997</v>
       </c>
       <c r="AN20">
-        <v>-0</v>
+        <v>-0.2875536480686695</v>
+      </c>
+      <c r="AO20">
+        <v>-33.44594594594595</v>
       </c>
       <c r="AP20">
-        <v>0.9153717763479365</v>
+        <v>-0.1781115879828326</v>
       </c>
       <c r="AQ20">
-        <v>593.75</v>
+        <v>-291.1764705882355</v>
       </c>
     </row>
     <row r="21">
@@ -2858,7 +2900,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Profound Medical Corp. (TSX:PRN)</t>
+          <t>Aquarius Surgical Technologies Inc. (CNSX:ASTI)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2867,22 +2909,22 @@
         </is>
       </c>
       <c r="G21">
-        <v>-1.525373134328359</v>
+        <v>-1.815217391304348</v>
       </c>
       <c r="H21">
-        <v>-4.268656716417911</v>
+        <v>-1.815217391304348</v>
       </c>
       <c r="I21">
-        <v>-4.348133962563974</v>
+        <v>-2.094731326965669</v>
       </c>
       <c r="J21">
-        <v>-4.348133962563974</v>
+        <v>-2.094731326965669</v>
       </c>
       <c r="K21">
-        <v>-15</v>
+        <v>-1.21</v>
       </c>
       <c r="L21">
-        <v>-4.477611940298507</v>
+        <v>-2.630434782608695</v>
       </c>
       <c r="M21">
         <v>-0</v>
@@ -2906,73 +2948,73 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>20.6</v>
+        <v>0.117</v>
       </c>
       <c r="V21">
-        <v>0.1538461538461539</v>
+        <v>0.0325</v>
       </c>
       <c r="W21">
-        <v>-0.6224066390041494</v>
+        <v>2.439516129032258</v>
       </c>
       <c r="X21">
-        <v>0.08232454983173788</v>
+        <v>0.07104120259488311</v>
       </c>
       <c r="Y21">
-        <v>-0.7047311888358873</v>
+        <v>2.368474926437375</v>
       </c>
       <c r="Z21">
-        <v>0.6236916586254817</v>
+        <v>0.4174675494135527</v>
       </c>
       <c r="AA21">
-        <v>-2.711894883037313</v>
+        <v>-0.8744823537481571</v>
       </c>
       <c r="AB21">
-        <v>0.07807936586544878</v>
+        <v>0.05639861203077294</v>
       </c>
       <c r="AC21">
-        <v>-2.789974248902762</v>
+        <v>-0.93088096577893</v>
       </c>
       <c r="AD21">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AE21">
-        <v>1.991243872946567</v>
+        <v>0.00288205202103898</v>
       </c>
       <c r="AF21">
-        <v>12.99124387294657</v>
+        <v>2.002882052021039</v>
       </c>
       <c r="AG21">
-        <v>-7.608756127053434</v>
+        <v>1.885882052021039</v>
       </c>
       <c r="AH21">
-        <v>0.08844124081475768</v>
+        <v>0.3574735347674455</v>
       </c>
       <c r="AI21">
-        <v>0.424671972375579</v>
+        <v>2.058710043895152</v>
       </c>
       <c r="AJ21">
-        <v>-0.06024769329778801</v>
+        <v>0.3437700690860217</v>
       </c>
       <c r="AK21">
-        <v>-0.761542428931774</v>
+        <v>2.203436849233849</v>
       </c>
       <c r="AL21">
-        <v>1.02</v>
+        <v>0.216</v>
       </c>
       <c r="AM21">
-        <v>0.62</v>
+        <v>0.205</v>
       </c>
       <c r="AN21">
-        <v>-0.7763975155279503</v>
+        <v>-2.314814814814815</v>
       </c>
       <c r="AO21">
-        <v>-14.2156862745098</v>
+        <v>-4.472222222222222</v>
       </c>
       <c r="AP21">
-        <v>0.5370381230274869</v>
+        <v>-2.182733856505832</v>
       </c>
       <c r="AQ21">
-        <v>-23.38709677419355</v>
+        <v>-4.712195121951219</v>
       </c>
     </row>
     <row r="22">
@@ -2983,7 +3025,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Izotropic Corporation (CNSX:IZO)</t>
+          <t>Bionik Laboratories Corp. (OTCPK:BNKL)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2991,8 +3033,23 @@
           <t>Healthcare Products</t>
         </is>
       </c>
+      <c r="G22">
+        <v>-4.8159509202454</v>
+      </c>
+      <c r="H22">
+        <v>-6.625766871165645</v>
+      </c>
+      <c r="I22">
+        <v>-5.699386503067484</v>
+      </c>
+      <c r="J22">
+        <v>-5.699386503067484</v>
+      </c>
       <c r="K22">
-        <v>-0.394</v>
+        <v>-23.1</v>
+      </c>
+      <c r="L22">
+        <v>-14.1717791411043</v>
       </c>
       <c r="M22">
         <v>-0</v>
@@ -3016,55 +3073,55 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>0.081</v>
+        <v>1.35</v>
       </c>
       <c r="V22">
-        <v>0.02035175879396985</v>
+        <v>0.213946117274168</v>
       </c>
       <c r="W22">
-        <v>-1.020725388601036</v>
+        <v>-0.721875</v>
       </c>
       <c r="X22">
-        <v>0.07812270352694808</v>
+        <v>0.07466223987012563</v>
       </c>
       <c r="Y22">
-        <v>-1.098848092127984</v>
+        <v>-0.7965372398701257</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>0.3202357563850687</v>
       </c>
       <c r="AA22">
-        <v>-3.749999999999999</v>
+        <v>-1.825147347740668</v>
       </c>
       <c r="AB22">
-        <v>0.07812270352694808</v>
+        <v>0.05357148144164223</v>
       </c>
       <c r="AC22">
-        <v>-3.828122703526947</v>
+        <v>-1.87871882918231</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>4.22</v>
       </c>
       <c r="AE22">
         <v>0</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>4.22</v>
       </c>
       <c r="AG22">
-        <v>-0.081</v>
+        <v>2.87</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>0.4007597340930674</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>0.290633608815427</v>
       </c>
       <c r="AJ22">
-        <v>-0.02077455757886638</v>
+        <v>0.312636165577342</v>
       </c>
       <c r="AK22">
-        <v>-3.375000000000001</v>
+        <v>0.2179195140470767</v>
       </c>
       <c r="AL22">
         <v>0</v>
@@ -3073,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="AN22">
-        <v>-0</v>
+        <v>-0.4678492239467849</v>
       </c>
       <c r="AP22">
-        <v>0.2375366568914956</v>
+        <v>-0.3181818181818182</v>
       </c>
     </row>
     <row r="23">
@@ -3087,7 +3144,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Cognetivity Neurosciences Ltd. (CNSX:CGN)</t>
+          <t>Relay Medical Corp. (CNSX:RELA)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3096,7 +3153,7 @@
         </is>
       </c>
       <c r="K23">
-        <v>-2.46</v>
+        <v>-6.86</v>
       </c>
       <c r="M23">
         <v>-0</v>
@@ -3120,73 +3177,73 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>0.194</v>
+        <v>0.151</v>
       </c>
       <c r="V23">
-        <v>0.0247765006385696</v>
+        <v>0.003756218905472637</v>
       </c>
       <c r="W23">
-        <v>-3.153846153846154</v>
+        <v>-2.110769230769231</v>
       </c>
       <c r="X23">
-        <v>0.0807112388474078</v>
+        <v>0.05409908122254478</v>
       </c>
       <c r="Y23">
-        <v>-3.234557392693561</v>
+        <v>-2.164868311991775</v>
       </c>
       <c r="Z23">
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>-4.727626459143969</v>
+        <v>-1.845987765383232</v>
       </c>
       <c r="AB23">
-        <v>0.08058226876056918</v>
+        <v>0.05306417009044664</v>
       </c>
       <c r="AC23">
-        <v>-4.808208727904538</v>
+        <v>-1.899051935473678</v>
       </c>
       <c r="AD23">
-        <v>0.468</v>
+        <v>1.22</v>
       </c>
       <c r="AE23">
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>0.468</v>
+        <v>1.22</v>
       </c>
       <c r="AG23">
-        <v>0.274</v>
+        <v>1.069</v>
       </c>
       <c r="AH23">
-        <v>0.05639913232104122</v>
+        <v>0.0294543698696282</v>
       </c>
       <c r="AI23">
-        <v>14.18181818181817</v>
+        <v>0.9744408945686901</v>
       </c>
       <c r="AJ23">
-        <v>0.03381046396841067</v>
+        <v>0.02590322033487605</v>
       </c>
       <c r="AK23">
-        <v>-1.701863354037267</v>
+        <v>0.9709355131698456</v>
       </c>
       <c r="AL23">
-        <v>0.008</v>
+        <v>0.099</v>
       </c>
       <c r="AM23">
-        <v>0.007</v>
+        <v>0.098</v>
       </c>
       <c r="AN23">
-        <v>-0.1925925925925926</v>
+        <v>-0.2590233545647558</v>
       </c>
       <c r="AO23">
-        <v>-303.75</v>
+        <v>-51.81818181818181</v>
       </c>
       <c r="AP23">
-        <v>-0.1127572016460905</v>
+        <v>-0.226963906581741</v>
       </c>
       <c r="AQ23">
-        <v>-347.1428571428572</v>
+        <v>-52.3469387755102</v>
       </c>
     </row>
     <row r="24">
@@ -3197,7 +3254,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Venus Concept Inc. (NasdaqGM:VERO)</t>
+          <t>SQI Diagnostics Inc. (TSXV:SQD)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3205,23 +3262,26 @@
           <t>Healthcare Products</t>
         </is>
       </c>
+      <c r="D24">
+        <v>0.336</v>
+      </c>
       <c r="G24">
-        <v>0.1533582089552239</v>
+        <v>-1.230769230769231</v>
       </c>
       <c r="H24">
-        <v>0.08003731343283582</v>
+        <v>-5</v>
       </c>
       <c r="I24">
-        <v>-0.09901609272968655</v>
+        <v>-5.515833607271979</v>
       </c>
       <c r="J24">
-        <v>-0.09901609272968655</v>
+        <v>-5.515833607271979</v>
       </c>
       <c r="K24">
-        <v>-33</v>
+        <v>-6.3</v>
       </c>
       <c r="L24">
-        <v>-0.3078358208955224</v>
+        <v>-6.057692307692307</v>
       </c>
       <c r="M24">
         <v>-0</v>
@@ -3245,67 +3305,73 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>15.7</v>
+        <v>3.18</v>
       </c>
       <c r="V24">
-        <v>0.1176029962546816</v>
+        <v>0.05435897435897436</v>
+      </c>
+      <c r="W24">
+        <v>12.90983606557377</v>
       </c>
       <c r="X24">
-        <v>0.1107733867055761</v>
+        <v>0.05575740419597522</v>
+      </c>
+      <c r="Y24">
+        <v>12.85407866137779</v>
       </c>
       <c r="Z24">
-        <v>49.91558810488404</v>
+        <v>0.4352675976435235</v>
       </c>
       <c r="AA24">
-        <v>-4.942446500450036</v>
+        <v>-2.400863643238685</v>
       </c>
       <c r="AB24">
-        <v>0.07516341563675495</v>
+        <v>0.05320651463581573</v>
       </c>
       <c r="AC24">
-        <v>-5.017609916086792</v>
+        <v>-2.4540701578745</v>
       </c>
       <c r="AD24">
-        <v>98.5</v>
+        <v>3.78</v>
       </c>
       <c r="AE24">
-        <v>2.147625703111989</v>
+        <v>1.007334757814299</v>
       </c>
       <c r="AF24">
-        <v>100.647625703112</v>
+        <v>4.787334757814299</v>
       </c>
       <c r="AG24">
-        <v>84.94762570311198</v>
+        <v>1.607334757814299</v>
       </c>
       <c r="AH24">
-        <v>0.4298468771608573</v>
+        <v>0.07564443622304999</v>
       </c>
       <c r="AI24">
-        <v>0.8419040119881862</v>
+        <v>0.6436895626869984</v>
       </c>
       <c r="AJ24">
-        <v>0.3888695307614041</v>
+        <v>0.02674107518309712</v>
       </c>
       <c r="AK24">
-        <v>0.8180025795290413</v>
+        <v>0.3775448371458341</v>
       </c>
       <c r="AL24">
-        <v>6.35</v>
+        <v>0.528</v>
       </c>
       <c r="AM24">
-        <v>6.35</v>
+        <v>0.528</v>
       </c>
       <c r="AN24">
-        <v>-11.60872127283441</v>
+        <v>-0.7220630372492837</v>
       </c>
       <c r="AO24">
-        <v>-1.732283464566929</v>
+        <v>-10.9280303030303</v>
       </c>
       <c r="AP24">
-        <v>-10.01150568097961</v>
+        <v>-0.3070362479110408</v>
       </c>
       <c r="AQ24">
-        <v>-1.732283464566929</v>
+        <v>-10.9280303030303</v>
       </c>
     </row>
     <row r="25">
@@ -3316,7 +3382,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Theralase Technologies Inc. (TSXV:TLT)</t>
+          <t>Profound Medical Corp. (TSX:PRN)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3324,26 +3390,23 @@
           <t>Healthcare Products</t>
         </is>
       </c>
-      <c r="D25">
-        <v>-0.012</v>
-      </c>
       <c r="G25">
-        <v>-0.2452316076294274</v>
+        <v>-0.6544901065449009</v>
       </c>
       <c r="H25">
-        <v>-3.133514986376022</v>
+        <v>-2.237442922374429</v>
       </c>
       <c r="I25">
-        <v>-5.265850997914639</v>
+        <v>-2.770167427701674</v>
       </c>
       <c r="J25">
-        <v>-5.265850997914639</v>
+        <v>-2.770167427701674</v>
       </c>
       <c r="K25">
-        <v>-3.89</v>
+        <v>-18.2</v>
       </c>
       <c r="L25">
-        <v>-5.299727520435968</v>
+        <v>-2.770167427701674</v>
       </c>
       <c r="M25">
         <v>-0</v>
@@ -3367,73 +3430,73 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>11.3</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="V25">
-        <v>0.212406015037594</v>
+        <v>0.2055032226078334</v>
       </c>
       <c r="W25">
-        <v>-9.025522041763342</v>
+        <v>-1.034090909090909</v>
       </c>
       <c r="X25">
-        <v>0.07833409401374815</v>
+        <v>0.05325493663875813</v>
       </c>
       <c r="Y25">
-        <v>-9.10385613577709</v>
+        <v>-1.087345845729667</v>
       </c>
       <c r="Z25">
-        <v>3.974589435046867</v>
+        <v>1.212177121771218</v>
       </c>
       <c r="AA25">
-        <v>-20.92959574284253</v>
+        <v>-3.357933579335793</v>
       </c>
       <c r="AB25">
-        <v>0.07822742824338169</v>
+        <v>0.05311355975528928</v>
       </c>
       <c r="AC25">
-        <v>-21.00782317108591</v>
+        <v>-3.411047139091083</v>
       </c>
       <c r="AD25">
-        <v>0.119</v>
+        <v>1.67</v>
       </c>
       <c r="AE25">
-        <v>0.140673162346728</v>
+        <v>0</v>
       </c>
       <c r="AF25">
-        <v>0.259673162346728</v>
+        <v>1.67</v>
       </c>
       <c r="AG25">
-        <v>-11.04032683765327</v>
+        <v>-81.23</v>
       </c>
       <c r="AH25">
-        <v>0.004857365318305456</v>
+        <v>0.004122744217048905</v>
       </c>
       <c r="AI25">
-        <v>0.02035108258987486</v>
+        <v>0.01754754649574446</v>
       </c>
       <c r="AJ25">
-        <v>-0.261869364953083</v>
+        <v>-0.2521339665394047</v>
       </c>
       <c r="AK25">
-        <v>-7.563560886399845</v>
+        <v>-6.620211898940508</v>
       </c>
       <c r="AL25">
-        <v>0.007</v>
+        <v>0.802</v>
       </c>
       <c r="AM25">
-        <v>-0.007</v>
+        <v>0.2370000000000001</v>
       </c>
       <c r="AN25">
-        <v>-0.03236333967908621</v>
+        <v>-0.09175824175824175</v>
       </c>
       <c r="AO25">
-        <v>-554.2857142857142</v>
+        <v>-22.6932668329177</v>
       </c>
       <c r="AP25">
-        <v>3.00253653458071</v>
+        <v>4.463186813186813</v>
       </c>
       <c r="AQ25">
-        <v>554.2857142857142</v>
+        <v>-76.79324894514764</v>
       </c>
     </row>
     <row r="26">
@@ -3444,7 +3507,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Imagin Medical Inc. (CNSX:IME)</t>
+          <t>Theralase Technologies Inc. (TSXV:TLT)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3452,8 +3515,26 @@
           <t>Healthcare Products</t>
         </is>
       </c>
+      <c r="D26">
+        <v>-0.0757</v>
+      </c>
+      <c r="G26">
+        <v>-2.128240109140518</v>
+      </c>
+      <c r="H26">
+        <v>-7.585266030013642</v>
+      </c>
+      <c r="I26">
+        <v>-7.939972714870396</v>
+      </c>
+      <c r="J26">
+        <v>-7.939972714870396</v>
+      </c>
       <c r="K26">
-        <v>-3.37</v>
+        <v>-5.8</v>
+      </c>
+      <c r="L26">
+        <v>-7.91268758526603</v>
       </c>
       <c r="M26">
         <v>-0</v>
@@ -3477,70 +3558,287 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>1.72</v>
+        <v>6.6</v>
       </c>
       <c r="V26">
-        <v>0.2935153583617747</v>
+        <v>0.2163934426229508</v>
       </c>
       <c r="W26">
-        <v>-0.7262931034482759</v>
+        <v>-0.464</v>
       </c>
       <c r="X26">
-        <v>0.07812270352694808</v>
+        <v>0.05320608026019781</v>
       </c>
       <c r="Y26">
-        <v>-0.804415806975224</v>
+        <v>-0.5172060802601978</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>0.5557240333586054</v>
       </c>
       <c r="AA26">
-        <v>-22.85714285714291</v>
+        <v>-4.412433661865053</v>
       </c>
       <c r="AB26">
-        <v>0.07812270352694808</v>
+        <v>0.05312453472648898</v>
       </c>
       <c r="AC26">
-        <v>-22.93526556066986</v>
+        <v>-4.465558196591542</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AE26">
         <v>0</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AG26">
-        <v>-1.72</v>
+        <v>-6.52</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>0.002616088947024199</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>0.0106951871657754</v>
       </c>
       <c r="AJ26">
-        <v>-0.4154589371980676</v>
+        <v>-0.2718932443703086</v>
       </c>
       <c r="AK26">
-        <v>14.33333333333335</v>
+        <v>-7.409090909090902</v>
       </c>
       <c r="AL26">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="AM26">
-        <v>-0.053</v>
+        <v>-0.07700000000000001</v>
       </c>
       <c r="AN26">
-        <v>-0</v>
+        <v>-0.01413427561837456</v>
+      </c>
+      <c r="AO26">
+        <v>-727.5</v>
       </c>
       <c r="AP26">
-        <v>0.5408805031446541</v>
+        <v>1.151943462897526</v>
       </c>
       <c r="AQ26">
-        <v>60.37735849056605</v>
+        <v>75.58441558441558</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Izotropic Corporation (CNSX:IZO)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Healthcare Products</t>
+        </is>
+      </c>
+      <c r="K27">
+        <v>-1.26</v>
+      </c>
+      <c r="M27">
+        <v>-0</v>
+      </c>
+      <c r="N27">
+        <v>-0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>-0</v>
+      </c>
+      <c r="Q27">
+        <v>-0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>2.35</v>
+      </c>
+      <c r="V27">
+        <v>0.06135770234986946</v>
+      </c>
+      <c r="W27">
+        <v>-12</v>
+      </c>
+      <c r="X27">
+        <v>0.05312159796641337</v>
+      </c>
+      <c r="Y27">
+        <v>-12.05312159796641</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>-48.33333333333334</v>
+      </c>
+      <c r="AB27">
+        <v>0.05312159796641337</v>
+      </c>
+      <c r="AC27">
+        <v>-48.38645493129976</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>-2.35</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>-0.06536856745479834</v>
+      </c>
+      <c r="AK27">
+        <v>-3.012820512820514</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>-0</v>
+      </c>
+      <c r="AP27">
+        <v>2.025862068965517</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Perimeter Medical Imaging AI, Inc. (TSXV:PINK)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Healthcare Products</t>
+        </is>
+      </c>
+      <c r="G28">
+        <v>-75.71084337349397</v>
+      </c>
+      <c r="H28">
+        <v>-79.27710843373494</v>
+      </c>
+      <c r="I28">
+        <v>-76.02409638554217</v>
+      </c>
+      <c r="J28">
+        <v>-76.02409638554217</v>
+      </c>
+      <c r="K28">
+        <v>-6.08</v>
+      </c>
+      <c r="L28">
+        <v>-73.25301204819277</v>
+      </c>
+      <c r="M28">
+        <v>-0</v>
+      </c>
+      <c r="N28">
+        <v>-0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>-0</v>
+      </c>
+      <c r="Q28">
+        <v>-0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>6.8</v>
+      </c>
+      <c r="V28">
+        <v>0.08405438813349814</v>
+      </c>
+      <c r="X28">
+        <v>0.05325616656447019</v>
+      </c>
+      <c r="AB28">
+        <v>0.05312626857462811</v>
+      </c>
+      <c r="AD28">
+        <v>0.338</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0.338</v>
+      </c>
+      <c r="AG28">
+        <v>-6.462</v>
+      </c>
+      <c r="AH28">
+        <v>0.004160614490755558</v>
+      </c>
+      <c r="AI28">
+        <v>0.03931146778320541</v>
+      </c>
+      <c r="AJ28">
+        <v>-0.08681050001343399</v>
+      </c>
+      <c r="AK28">
+        <v>-3.593993325917686</v>
+      </c>
+      <c r="AL28">
+        <v>1.91</v>
+      </c>
+      <c r="AM28">
+        <v>1.906</v>
+      </c>
+      <c r="AN28">
+        <v>-0.05373608903020668</v>
+      </c>
+      <c r="AO28">
+        <v>-3.303664921465968</v>
+      </c>
+      <c r="AP28">
+        <v>1.027344992050874</v>
+      </c>
+      <c r="AQ28">
+        <v>-3.310598111227702</v>
       </c>
     </row>
   </sheetData>
